--- a/forecast_summary_B0D33M6CB7.xlsx
+++ b/forecast_summary_B0D33M6CB7.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-114.1606571382479</v>
       </c>
       <c r="D2" t="n">
-        <v>-74.10647111937639</v>
+        <v>-72.88595738334207</v>
       </c>
       <c r="E2" t="n">
         <v>75</v>
@@ -511,6 +516,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-383.2673072518337</v>
       </c>
       <c r="D3" t="n">
-        <v>-342.855638418269</v>
+        <v>-342.6356235970876</v>
       </c>
       <c r="E3" t="n">
         <v>46</v>
@@ -547,6 +555,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-469.1177678266335</v>
       </c>
       <c r="D4" t="n">
-        <v>-428.9750192735075</v>
+        <v>-428.9795280966804</v>
       </c>
       <c r="E4" t="n">
         <v>46</v>
@@ -583,6 +594,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-99.88304103848742</v>
       </c>
       <c r="D5" t="n">
-        <v>-58.45656732692777</v>
+        <v>-59.81125229359418</v>
       </c>
       <c r="E5" t="n">
         <v>35</v>
@@ -619,6 +633,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>585.5874452155712</v>
       </c>
       <c r="D6" t="n">
-        <v>626.8446309513888</v>
+        <v>627.9061984012307</v>
       </c>
       <c r="E6" t="n">
         <v>36</v>
@@ -655,6 +672,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C7" t="n">
         <v>1027.083948488252</v>
       </c>
       <c r="D7" t="n">
-        <v>1071.831071131638</v>
+        <v>1066.873334642881</v>
       </c>
       <c r="E7" t="n">
         <v>39</v>
@@ -691,6 +711,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>779.0333077799015</v>
       </c>
       <c r="D8" t="n">
-        <v>817.9682868357096</v>
+        <v>819.5823890847593</v>
       </c>
       <c r="E8" t="n">
         <v>38</v>
@@ -727,6 +750,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>64.66091652036759</v>
       </c>
       <c r="D9" t="n">
-        <v>105.3509513109326</v>
+        <v>103.9902803861079</v>
       </c>
       <c r="E9" t="n">
         <v>39</v>
@@ -763,6 +789,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-354.5735081726116</v>
       </c>
       <c r="D10" t="n">
-        <v>-313.8083278672293</v>
+        <v>-310.8045225567183</v>
       </c>
       <c r="E10" t="n">
         <v>39</v>
@@ -799,6 +828,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
         <v>18.4358739962858</v>
       </c>
       <c r="D11" t="n">
-        <v>60.95996301788529</v>
+        <v>58.29464382305715</v>
       </c>
       <c r="E11" t="n">
         <v>40</v>
@@ -835,6 +867,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>808.6870947524612</v>
       </c>
       <c r="D12" t="n">
-        <v>849.9288707481808</v>
+        <v>850.7542971445458</v>
       </c>
       <c r="E12" t="n">
         <v>41</v>
@@ -871,6 +906,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>1127.823408098495</v>
       </c>
       <c r="D13" t="n">
-        <v>1171.71932385145</v>
+        <v>1169.437042762758</v>
       </c>
       <c r="E13" t="n">
         <v>41</v>
@@ -907,6 +945,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>585.4651541991439</v>
       </c>
       <c r="D14" t="n">
-        <v>628.7685432139203</v>
+        <v>629.8732445939769</v>
       </c>
       <c r="E14" t="n">
         <v>40</v>
@@ -943,6 +984,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-205.1085898767159</v>
       </c>
       <c r="D15" t="n">
-        <v>-165.9539848211618</v>
+        <v>-164.6780171506015</v>
       </c>
       <c r="E15" t="n">
         <v>42</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-291.2352792965463</v>
       </c>
       <c r="D16" t="n">
-        <v>-245.6950094763332</v>
+        <v>-252.3698647165432</v>
       </c>
       <c r="E16" t="n">
         <v>41</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>490.9535472738069</v>
       </c>
       <c r="D17" t="n">
-        <v>534.2967631454646</v>
+        <v>531.8234458267193</v>
       </c>
       <c r="E17" t="n">
         <v>43</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>1261.319485313165</v>
       </c>
       <c r="D18" t="n">
-        <v>1302.783083175609</v>
+        <v>1299.909210590291</v>
       </c>
       <c r="E18" t="n">
         <v>42</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>1090.663477766503</v>
       </c>
       <c r="D19" t="n">
-        <v>1131.548323067602</v>
+        <v>1133.350674517001</v>
       </c>
       <c r="E19" t="n">
         <v>42</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>125.5637880052052</v>
       </c>
       <c r="D20" t="n">
-        <v>168.9362271803105</v>
+        <v>170.3336432381649</v>
       </c>
       <c r="E20" t="n">
         <v>43</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-511.6852473640009</v>
       </c>
       <c r="D21" t="n">
-        <v>-469.1477032126915</v>
+        <v>-468.4247189420623</v>
       </c>
       <c r="E21" t="n">
         <v>43</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>GC-WIFI7</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5527</t>
+          <t>5525</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2474</t>
+          <t>2473</t>
         </is>
       </c>
     </row>
